--- a/Secure Messages_Labeled.xlsx
+++ b/Secure Messages_Labeled.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="8_{4DB2F777-5F8D-4A5C-B5E0-E7E6471CBECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{316316E0-00DF-48CD-9A4D-323A2B0156C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1130,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>46</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>50</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>51</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>57</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>58</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>62</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>65</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>66</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>67</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>68</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>69</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>70</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>71</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>72</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>73</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>78</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>79</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>81</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>82</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>83</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>84</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>86</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>89</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>90</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>91</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>94</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>95</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>96</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>97</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>98</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>100</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>102</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="203" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>104</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>105</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>106</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>107</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>111</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>112</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>113</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>116</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>117</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>118</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>119</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>121</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>122</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>123</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>124</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>125</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>126</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>127</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>128</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>132</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>135</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>136</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>137</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>138</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>139</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
         <v>141</v>
       </c>
